--- a/Backend/output.xlsx
+++ b/Backend/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1283,9 +1283,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>Infinix Hero</v>
+      </c>
+      <c r="C20" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Aman jaiswal</v>
+      </c>
+      <c r="E20" t="str">
+        <v>amanj952987@gmail.com</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9652741536</v>
+      </c>
+      <c r="G20" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H20" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="I20" t="str">
+        <v>quinton de cock</v>
+      </c>
+      <c r="J20" t="str">
+        <v>amnabs@gmail.com</v>
+      </c>
+      <c r="K20" t="str">
+        <v>856269569</v>
+      </c>
+      <c r="L20" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M20" t="str">
+        <v>4th</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1756639469/uploadnew/ec3vxnt60u4zgrede8uk.png</v>
+      </c>
+      <c r="AD20" t="str">
+        <v>52236542365236</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Ganesha</v>
+      </c>
+      <c r="C21" t="str">
+        <v>MGUG</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Shivani singh</v>
+      </c>
+      <c r="E21" t="str">
+        <v>amanjais102@gmail.com</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2541265425</v>
+      </c>
+      <c r="G21" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="H21" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="AC21" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1756640136/uploadnew/xmysskg7qwygqyxpg7ka.png</v>
+      </c>
+      <c r="AD21" t="str">
+        <v>652641252</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/output.xlsx
+++ b/Backend/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,9 +1362,672 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>jugadu indians</v>
+      </c>
+      <c r="C22" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D22" t="str">
+        <v>aman</v>
+      </c>
+      <c r="E22" t="str">
+        <v>info.contact.edunova@gmail.com</v>
+      </c>
+      <c r="F22" t="str">
+        <v>9555951834</v>
+      </c>
+      <c r="G22" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H22" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="I22" t="str">
+        <v>bigadu</v>
+      </c>
+      <c r="J22" t="str">
+        <v>sdfg@gmail.com</v>
+      </c>
+      <c r="K22" t="str">
+        <v>9695859618</v>
+      </c>
+      <c r="L22" t="str">
+        <v>BBA</v>
+      </c>
+      <c r="M22" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1756879338/uploadnew/bzthcc9vceai27iqnmzr.png</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>1233366588955</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>Game of thrones</v>
+      </c>
+      <c r="C23" t="str">
+        <v>MNNIT</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Sonu yadav</v>
+      </c>
+      <c r="E23" t="str">
+        <v>info.swiftwings@gmail.com</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3838489594</v>
+      </c>
+      <c r="G23" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1756896094/uploadnew/sjc3fjgi2nncaqyppwy6.jpg</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>938938484884</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>vijit</v>
+      </c>
+      <c r="C24" t="str">
+        <v>mmmut</v>
+      </c>
+      <c r="D24" t="str">
+        <v>vb</v>
+      </c>
+      <c r="E24" t="str">
+        <v>vijitbhadanq@gmail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8218687241</v>
+      </c>
+      <c r="G24" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="H24" t="str">
+        <v>4th</v>
+      </c>
+      <c r="AC24" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1756917966/uploadnew/gmrrve2ysu4u9lrz9rdy.png</v>
+      </c>
+      <c r="AD24" t="str">
+        <v>asdfghjk</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>falcon fusion</v>
+      </c>
+      <c r="C25" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Abhishek Tiwari</v>
+      </c>
+      <c r="E25" t="str">
+        <v>abhishektiwariabhi2006@gmail.com</v>
+      </c>
+      <c r="F25" t="str">
+        <v>9305289652</v>
+      </c>
+      <c r="G25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Alok Kumar</v>
+      </c>
+      <c r="J25" t="str">
+        <v>abhishektiwariabhi2006@gmail.com</v>
+      </c>
+      <c r="K25" t="str">
+        <v>7800760855</v>
+      </c>
+      <c r="L25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M25" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="N25" t="str">
+        <v>XYZ</v>
+      </c>
+      <c r="O25" t="str">
+        <v>XYZ123@gmail.com</v>
+      </c>
+      <c r="P25" t="str">
+        <v>73981076564</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="R25" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="S25" t="str">
+        <v>pqr</v>
+      </c>
+      <c r="T25" t="str">
+        <v>abc@gmail.com</v>
+      </c>
+      <c r="U25" t="str">
+        <v>9569609095</v>
+      </c>
+      <c r="V25" t="str">
+        <v>ME</v>
+      </c>
+      <c r="W25" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="X25" t="str">
+        <v>abc</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>xyz@gmail.com</v>
+      </c>
+      <c r="Z25" t="str">
+        <v>9305289652</v>
+      </c>
+      <c r="AA25" t="str">
+        <v>B.PHARMA</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1757006161/uploadnew/ancq0wijfdo4hihdwnwm.jpg</v>
+      </c>
+      <c r="AD25" t="str">
+        <v>ghuiy9834y7o94r</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>xyz</v>
+      </c>
+      <c r="C26" t="str">
+        <v>mmmut</v>
+      </c>
+      <c r="D26" t="str">
+        <v>MRADUL SINGH</v>
+      </c>
+      <c r="E26" t="str">
+        <v>mradulmradul123@gmail.com</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8957262596</v>
+      </c>
+      <c r="G26" t="str">
+        <v>ME</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="I26" t="str">
+        <v>ashish</v>
+      </c>
+      <c r="J26" t="str">
+        <v>mmmut@gmail.com</v>
+      </c>
+      <c r="K26" t="str">
+        <v>2131564649</v>
+      </c>
+      <c r="L26" t="str">
+        <v>B.PHARMA</v>
+      </c>
+      <c r="M26" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="N26" t="str">
+        <v>bshjgysgyuss</v>
+      </c>
+      <c r="O26" t="str">
+        <v>sghvsy</v>
+      </c>
+      <c r="P26" t="str">
+        <v>16548</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="R26" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="S26" t="str">
+        <v>shjvcs</v>
+      </c>
+      <c r="T26" t="str">
+        <v>bhvfu</v>
+      </c>
+      <c r="U26" t="str">
+        <v>134</v>
+      </c>
+      <c r="V26" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W26" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="X26" t="str">
+        <v>dwd</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>vfvy</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>5454</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>B.PHARMA</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1757006173/uploadnew/qx2k1zyizkj7wojvkrbh.jpg</v>
+      </c>
+      <c r="AD26" t="str">
+        <v>321654987</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>PREDATORS</v>
+      </c>
+      <c r="C27" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ADITYA TIWARI</v>
+      </c>
+      <c r="E27" t="str">
+        <v>adtiwari936@gmail.com</v>
+      </c>
+      <c r="F27" t="str">
+        <v>8292739204</v>
+      </c>
+      <c r="G27" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="I27" t="str">
+        <v>DHEERAJ</v>
+      </c>
+      <c r="J27" t="str">
+        <v>adtiwari936@gmail.com</v>
+      </c>
+      <c r="K27" t="str">
+        <v>8292739204</v>
+      </c>
+      <c r="L27" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M27" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="N27" t="str">
+        <v>AYUSH</v>
+      </c>
+      <c r="O27" t="str">
+        <v>adtiwari936@gmail.com</v>
+      </c>
+      <c r="P27" t="str">
+        <v>8292739204</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R27" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="S27" t="str">
+        <v>SUBH</v>
+      </c>
+      <c r="T27" t="str">
+        <v>adtiwari936@gmail.com</v>
+      </c>
+      <c r="U27" t="str">
+        <v>8292739204</v>
+      </c>
+      <c r="V27" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W27" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="X27" t="str">
+        <v>AKASH</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>djsqgkuhqi@gmail.com</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>484513483153486</v>
+      </c>
+      <c r="AA27" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB27" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="AC27" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1757006176/uploadnew/mfac8ovbn0zmjwk83mf8.jpg</v>
+      </c>
+      <c r="AD27" t="str">
+        <v>4</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>RCB 25</v>
+      </c>
+      <c r="C28" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Divyansh Singh</v>
+      </c>
+      <c r="E28" t="str">
+        <v>divyanshsingh5839@gmail.com</v>
+      </c>
+      <c r="F28" t="str">
+        <v>9708203083</v>
+      </c>
+      <c r="G28" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="I28" t="str">
+        <v xml:space="preserve">Ayush </v>
+      </c>
+      <c r="J28" t="str">
+        <v>Zzbb</v>
+      </c>
+      <c r="K28" t="str">
+        <v>9708203083</v>
+      </c>
+      <c r="L28" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="M28" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="N28" t="str">
+        <v>Jsj</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Hah</v>
+      </c>
+      <c r="P28" t="str">
+        <v>8jajja</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R28" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="S28" t="str">
+        <v>Ywh</v>
+      </c>
+      <c r="T28" t="str">
+        <v>Hahah</v>
+      </c>
+      <c r="U28" t="str">
+        <v>82827</v>
+      </c>
+      <c r="V28" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="W28" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="X28" t="str">
+        <v>26266w</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>Hahha</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>6162</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1757006199/uploadnew/jz9vbuzetzn6qe7dzxrd.png</v>
+      </c>
+      <c r="AD28" t="str">
+        <v>6666655</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>COSMOS</v>
+      </c>
+      <c r="C29" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Saurabh singh</v>
+      </c>
+      <c r="E29" t="str">
+        <v>saurabhsinghrajput72@gmail.com</v>
+      </c>
+      <c r="F29" t="str">
+        <v>8409901034</v>
+      </c>
+      <c r="G29" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="I29" t="str">
+        <v>divyansh singh</v>
+      </c>
+      <c r="J29" t="str">
+        <v>rytgoku@gmail.com</v>
+      </c>
+      <c r="K29" t="str">
+        <v>7352801234</v>
+      </c>
+      <c r="L29" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="M29" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="N29" t="str">
+        <v>ss</v>
+      </c>
+      <c r="O29" t="str">
+        <v>rytgoku@gmail.com</v>
+      </c>
+      <c r="P29" t="str">
+        <v>8888787878</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="R29" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="S29" t="str">
+        <v>dd</v>
+      </c>
+      <c r="T29" t="str">
+        <v>rytgoku@gmail.com</v>
+      </c>
+      <c r="U29" t="str">
+        <v>65757567567</v>
+      </c>
+      <c r="V29" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="W29" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="X29" t="str">
+        <v>dsdsdf</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>rytgoku@gmail.com</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1757006260/uploadnew/gvbbyabujrln25dzib7p.png</v>
+      </c>
+      <c r="AD29" t="str">
+        <v>5645876898</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>Ashina</v>
+      </c>
+      <c r="C30" t="str">
+        <v>mmmut</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Akshat Mishra</v>
+      </c>
+      <c r="E30" t="str">
+        <v>akshatmishra2107@gmail.com</v>
+      </c>
+      <c r="F30" t="str">
+        <v>3859288492</v>
+      </c>
+      <c r="G30" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="I30" t="str">
+        <v>akdhaydhndis</v>
+      </c>
+      <c r="J30" t="str">
+        <v>dnfiwnfnna</v>
+      </c>
+      <c r="K30" t="str">
+        <v>dhsjfhajj</v>
+      </c>
+      <c r="L30" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M30" t="str">
+        <v>4th</v>
+      </c>
+      <c r="N30" t="str">
+        <v>akdjahsh</v>
+      </c>
+      <c r="O30" t="str">
+        <v>akshatmishra2107@gmail.com</v>
+      </c>
+      <c r="P30" t="str">
+        <v>38572948</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R30" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="S30" t="str">
+        <v>akshay jd</v>
+      </c>
+      <c r="T30" t="str">
+        <v>akdjayyrmak</v>
+      </c>
+      <c r="U30" t="str">
+        <v>385710471</v>
+      </c>
+      <c r="V30" t="str">
+        <v>ME</v>
+      </c>
+      <c r="W30" t="str">
+        <v>2nd</v>
+      </c>
+      <c r="X30" t="str">
+        <v>Aksjta Mishra</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>akshatmishra2107@gmail.com</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>294810491</v>
+      </c>
+      <c r="AA30" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="AB30" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="AC30" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1757006281/uploadnew/yepdyanfndiqcrcm6adi.jpg</v>
+      </c>
+      <c r="AD30" t="str">
+        <v>37581847198382</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/output.xlsx
+++ b/Backend/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -591,24 +591,84 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>AERONOVA</v>
+        <v>SASAN WINGS</v>
       </c>
       <c r="C3" t="str">
         <v>Madan Mohan Malaviya University of technology</v>
       </c>
       <c r="D3" t="str">
-        <v>Apoorva Singh</v>
+        <v>Saurabh Kushwaha</v>
       </c>
       <c r="E3" t="str">
-        <v>apoorvasingh14off@gmail.com</v>
+        <v>geetakushwahaqw@gmail.com</v>
       </c>
       <c r="F3" t="str">
-        <v>9026486404</v>
+        <v>6393162440</v>
       </c>
       <c r="G3" t="str">
-        <v>CE</v>
+        <v>CSE</v>
       </c>
       <c r="H3" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Suraj Kumar Gond</v>
+      </c>
+      <c r="J3" t="str">
+        <v>surajgond2109@gmail.com</v>
+      </c>
+      <c r="K3" t="str">
+        <v>8858195482</v>
+      </c>
+      <c r="L3" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Nigam Kumar</v>
+      </c>
+      <c r="O3" t="str">
+        <v>anixcorn@gmail.com</v>
+      </c>
+      <c r="P3" t="str">
+        <v>7321916752</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>IT</v>
+      </c>
+      <c r="R3" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Astitva sharma</v>
+      </c>
+      <c r="T3" t="str">
+        <v>astitvas978@gmail.com</v>
+      </c>
+      <c r="U3" t="str">
+        <v>8887045543</v>
+      </c>
+      <c r="V3" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="W3" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X3" t="str">
+        <v>Ankit</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>raunak2007kr.singh@gmail.com</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>9044513584</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>IT</v>
+      </c>
+      <c r="AB3" t="str">
         <v>1st</v>
       </c>
       <c r="AC3" t="str">
@@ -997,28 +1057,28 @@
         <v xml:space="preserve">Madhan Mohana Malviya university of technology </v>
       </c>
       <c r="D8" t="str">
-        <v>Animesh yadav</v>
+        <v xml:space="preserve">Arjun Rastogi </v>
       </c>
       <c r="E8" t="str">
-        <v>chikooanimesh@gmail.com</v>
+        <v>arjunrastogi2005@gmail.com</v>
       </c>
       <c r="F8" t="str">
-        <v>9651369351</v>
+        <v>87914 05922</v>
       </c>
       <c r="G8" t="str">
-        <v>ECE(IoT)</v>
+        <v>ECE</v>
       </c>
       <c r="H8" t="str">
         <v>1st</v>
       </c>
       <c r="I8" t="str">
-        <v xml:space="preserve">Arjun Rastogi </v>
+        <v>Divyanshu Kasaudhan</v>
       </c>
       <c r="J8" t="str">
-        <v>arjunrastogi2005@gmail.com</v>
+        <v>div738815@gmail.com</v>
       </c>
       <c r="K8" t="str">
-        <v>87914 05922</v>
+        <v>00000000</v>
       </c>
       <c r="L8" t="str">
         <v>ECE</v>
@@ -1486,6 +1546,51 @@
       <c r="M13" t="str">
         <v>1st</v>
       </c>
+      <c r="N13" t="str">
+        <v>Anushka Pal</v>
+      </c>
+      <c r="O13" t="str">
+        <v>anushka667pal@gmail.com</v>
+      </c>
+      <c r="P13" t="str">
+        <v>9369273267</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R13" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S13" t="str">
+        <v>Gurkirat Singh</v>
+      </c>
+      <c r="T13" t="str">
+        <v>rijaks767@gmail.com</v>
+      </c>
+      <c r="U13" t="str">
+        <v>9336773517</v>
+      </c>
+      <c r="V13" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W13" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X13" t="str">
+        <v>Satyam Vishwakarma</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>svishwakarama5570@gmail.com</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>8299058458</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>ME</v>
+      </c>
+      <c r="AB13" t="str">
+        <v>1st</v>
+      </c>
       <c r="AC13" t="str">
         <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1759659704/uploadnew/idlgicznrlx5bbths31b.jpg</v>
       </c>
@@ -2140,9 +2245,2602 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Sky Hawks</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Madan Mohan  Malaviya University of Technology</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Vaishnavi Pandey</v>
+      </c>
+      <c r="E21" t="str">
+        <v>vp5127812@gmail.com</v>
+      </c>
+      <c r="F21" t="str">
+        <v>9137078978</v>
+      </c>
+      <c r="G21" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H21" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Shyam Yadav</v>
+      </c>
+      <c r="J21" t="str">
+        <v>sy5872387@gmail.com</v>
+      </c>
+      <c r="K21" t="str">
+        <v>8528050131</v>
+      </c>
+      <c r="L21" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M21" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N21" t="str">
+        <v>Drishti Garg</v>
+      </c>
+      <c r="O21" t="str">
+        <v>2025061024@mmmut.ac.in</v>
+      </c>
+      <c r="P21" t="str">
+        <v>9651602468</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="R21" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S21" t="str">
+        <v>Bibhor Yadav</v>
+      </c>
+      <c r="T21" t="str">
+        <v>bibhor3069@gmail.com</v>
+      </c>
+      <c r="U21" t="str">
+        <v>7238853362</v>
+      </c>
+      <c r="V21" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W21" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X21" t="str">
+        <v>Akarsh Shukla</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>2025011008@mmmut.ac.in</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>6393725872</v>
+      </c>
+      <c r="AA21" t="str">
+        <v>CE</v>
+      </c>
+      <c r="AB21" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC21" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761028439/uploadnew/ejacfmjxvaefpfdvlnzj.jpg</v>
+      </c>
+      <c r="AD21" t="str">
+        <v>T2510211200420431237684</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>Falcon Flyers</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Madan Mohan Malaviya University of technology</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Mitali Raj</v>
+      </c>
+      <c r="E22" t="str">
+        <v>rmitali953@gmail.com</v>
+      </c>
+      <c r="F22" t="str">
+        <v>9451216277</v>
+      </c>
+      <c r="G22" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H22" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I22" t="str">
+        <v xml:space="preserve">Farhan Ahmad </v>
+      </c>
+      <c r="J22" t="str">
+        <v>farhanhmd09@gmail.com</v>
+      </c>
+      <c r="K22" t="str">
+        <v>9318499551</v>
+      </c>
+      <c r="L22" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M22" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Ashwani Jaiswal</v>
+      </c>
+      <c r="O22" t="str">
+        <v>ashwani03122005@gmail.com</v>
+      </c>
+      <c r="P22" t="str">
+        <v>6306829982</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R22" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S22" t="str">
+        <v xml:space="preserve">Rashi Ranjan Singh </v>
+      </c>
+      <c r="T22" t="str">
+        <v xml:space="preserve">ranjansinghrashi@gmail.com </v>
+      </c>
+      <c r="U22" t="str">
+        <v>8381968172</v>
+      </c>
+      <c r="V22" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W22" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X22" t="str">
+        <v xml:space="preserve">Neha Gond </v>
+      </c>
+      <c r="Y22" t="str">
+        <v>nehagond7525@gmail.com</v>
+      </c>
+      <c r="Z22" t="str">
+        <v>7753909907</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761033600/uploadnew/eyiqcd2slzrhtvflz27j.png</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>529435727460</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>VimanaX</v>
+      </c>
+      <c r="C23" t="str">
+        <v xml:space="preserve">Madam Mohan Malviya University of Technology </v>
+      </c>
+      <c r="D23" t="str">
+        <v>Ratna Mishra</v>
+      </c>
+      <c r="E23" t="str">
+        <v>ratna20057092@gmail.com</v>
+      </c>
+      <c r="F23" t="str">
+        <v>7007703208</v>
+      </c>
+      <c r="G23" t="str">
+        <v>EE</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I23" t="str">
+        <v xml:space="preserve">Rudra Narayan Pandey </v>
+      </c>
+      <c r="J23" t="str">
+        <v>rnp51bst@gmail.com</v>
+      </c>
+      <c r="K23" t="str">
+        <v>7408326693</v>
+      </c>
+      <c r="L23" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="M23" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N23" t="str">
+        <v xml:space="preserve">Gyanendra Singh  </v>
+      </c>
+      <c r="O23" t="str">
+        <v>gyanendrasingh8004@gmail.com</v>
+      </c>
+      <c r="P23" t="str">
+        <v>9140799217</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>CE</v>
+      </c>
+      <c r="R23" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S23" t="str">
+        <v xml:space="preserve">Shivakant Pandey </v>
+      </c>
+      <c r="T23" t="str">
+        <v>majorshp29@gmail.com</v>
+      </c>
+      <c r="U23" t="str">
+        <v>9555348837</v>
+      </c>
+      <c r="V23" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="W23" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X23" t="str">
+        <v xml:space="preserve">Aparna Tripathi </v>
+      </c>
+      <c r="Y23" t="str">
+        <v>mat.tiwirl@gmail.com</v>
+      </c>
+      <c r="Z23" t="str">
+        <v>9580222076</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761045026/uploadnew/zctctycbakxahoj9vefj.jpg</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>T2510211635550781796663</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>Oracle  Wings</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Madan Mohan Malviya University Of Technology</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Aryan Yadav</v>
+      </c>
+      <c r="E24" t="str">
+        <v>ps0078340@gmail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>9569974939</v>
+      </c>
+      <c r="G24" t="str">
+        <v>ME</v>
+      </c>
+      <c r="H24" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Shreya Dwivedi</v>
+      </c>
+      <c r="J24" t="str">
+        <v>shreyaddwivedi210@gmail.com</v>
+      </c>
+      <c r="K24" t="str">
+        <v>6306668245</v>
+      </c>
+      <c r="L24" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="M24" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N24" t="str">
+        <v>Nitish Yadav</v>
+      </c>
+      <c r="O24" t="str">
+        <v>bgmishrita@gmail.com</v>
+      </c>
+      <c r="P24" t="str">
+        <v>9369252136</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>EE</v>
+      </c>
+      <c r="R24" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S24" t="str">
+        <v>Amrita Singh</v>
+      </c>
+      <c r="T24" t="str">
+        <v>amrita07092007@gmail.com</v>
+      </c>
+      <c r="U24" t="str">
+        <v>9116230250</v>
+      </c>
+      <c r="V24" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W24" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X24" t="str">
+        <v>Akanksha Singh</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>akankshasinghpcm1@gmail.com</v>
+      </c>
+      <c r="Z24" t="str">
+        <v>6387366847</v>
+      </c>
+      <c r="AA24" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB24" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC24" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761047718/uploadnew/vxfmlopzmmrk2tbuhirv.jpg</v>
+      </c>
+      <c r="AD24" t="str">
+        <v>T2510211717172394231004</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>STORM CHASERS</v>
+      </c>
+      <c r="C25" t="str">
+        <v>madan mohan malaviya university of technology</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Tanishk Pandey</v>
+      </c>
+      <c r="E25" t="str">
+        <v>tanishkpandey746@gmail.com</v>
+      </c>
+      <c r="F25" t="str">
+        <v>9118858984</v>
+      </c>
+      <c r="G25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H25" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Mayank</v>
+      </c>
+      <c r="J25" t="str">
+        <v>mayanksingh235k@gmail.com</v>
+      </c>
+      <c r="K25" t="str">
+        <v>7923470062</v>
+      </c>
+      <c r="L25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M25" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N25" t="str">
+        <v>Manaswi Pandey</v>
+      </c>
+      <c r="O25" t="str">
+        <v>manaswipandey.207@gmail.com</v>
+      </c>
+      <c r="P25" t="str">
+        <v>7317887177</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R25" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S25" t="str">
+        <v>Prity Kumari</v>
+      </c>
+      <c r="T25" t="str">
+        <v>prity.kri.jha676@gmail.com</v>
+      </c>
+      <c r="U25" t="str">
+        <v>8789392767</v>
+      </c>
+      <c r="V25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W25" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X25" t="str">
+        <v>Kunal Yadav</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>kunalyadav00004@gmail.com</v>
+      </c>
+      <c r="Z25" t="str">
+        <v>6388035128</v>
+      </c>
+      <c r="AA25" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761052427/uploadnew/nuyji1rwlcwydzr1iqty.jpg</v>
+      </c>
+      <c r="AD25" t="str">
+        <v>529442175602</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>HAWKS</v>
+      </c>
+      <c r="C26" t="str">
+        <v xml:space="preserve">Madan Mohan Malviya University Of Technology </v>
+      </c>
+      <c r="D26" t="str">
+        <v>Tarun Kumar</v>
+      </c>
+      <c r="E26" t="str">
+        <v>assanhai123456789@gmail.com</v>
+      </c>
+      <c r="F26" t="str">
+        <v>9149293127</v>
+      </c>
+      <c r="G26" t="str">
+        <v>ME</v>
+      </c>
+      <c r="H26" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Ankesh Srivastava</v>
+      </c>
+      <c r="J26" t="str">
+        <v>ankeshsrivastava61289@gmail.com</v>
+      </c>
+      <c r="K26" t="str">
+        <v>7897139837</v>
+      </c>
+      <c r="L26" t="str">
+        <v>EE</v>
+      </c>
+      <c r="M26" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N26" t="str">
+        <v>Abhinav Dubey</v>
+      </c>
+      <c r="O26" t="str">
+        <v>abhi.06092005@gmail.com</v>
+      </c>
+      <c r="P26" t="str">
+        <v>8840016102</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R26" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S26" t="str">
+        <v>Tarush Bhooshan</v>
+      </c>
+      <c r="T26" t="str">
+        <v>tarushbhooshan@gmail.com</v>
+      </c>
+      <c r="U26" t="str">
+        <v>9725018468</v>
+      </c>
+      <c r="V26" t="str">
+        <v>ME</v>
+      </c>
+      <c r="W26" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X26" t="str">
+        <v>Ananaya Kumar</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>kananya672@gmail.com</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>7052879822</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>ME</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761053060/uploadnew/ktxnytnhrkcbr1ebqyua.jpg</v>
+      </c>
+      <c r="AD26" t="str">
+        <v>FMPIB3596110410</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>AERO ACES</v>
+      </c>
+      <c r="C27" t="str">
+        <v>MMMUT Gorakhpur</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Prakhar Pal</v>
+      </c>
+      <c r="E27" t="str">
+        <v>palprakhar2020@gmail.com</v>
+      </c>
+      <c r="F27" t="str">
+        <v>9305012089</v>
+      </c>
+      <c r="G27" t="str">
+        <v>ME</v>
+      </c>
+      <c r="H27" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Vaibhav Rai</v>
+      </c>
+      <c r="J27" t="str">
+        <v>vaibhavrai424@gmail.com</v>
+      </c>
+      <c r="K27" t="str">
+        <v>8303451446</v>
+      </c>
+      <c r="L27" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M27" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N27" t="str">
+        <v>Shivansh Singh</v>
+      </c>
+      <c r="O27" t="str">
+        <v>beastincatnate120706@gmail.com</v>
+      </c>
+      <c r="P27" t="str">
+        <v>8265858480</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="R27" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S27" t="str">
+        <v>Archita Pandey</v>
+      </c>
+      <c r="T27" t="str">
+        <v>architapandey378@gmail.com</v>
+      </c>
+      <c r="U27" t="str">
+        <v>8528883915</v>
+      </c>
+      <c r="V27" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="W27" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X27" t="str">
+        <v>Ankita Gupta</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>ankitagg909@gmail.com</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>7068886234</v>
+      </c>
+      <c r="AA27" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="AB27" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC27" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761100666/uploadnew/ozjv5qm8qf0vny9qz1xc.jpg</v>
+      </c>
+      <c r="AD27" t="str">
+        <v>566196903462</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v xml:space="preserve">WingMaster </v>
+      </c>
+      <c r="C28" t="str">
+        <v xml:space="preserve">Madan Mohan Malviya University of Technology </v>
+      </c>
+      <c r="D28" t="str">
+        <v>Om Prakash</v>
+      </c>
+      <c r="E28" t="str">
+        <v>om947390prakash@gmail.com</v>
+      </c>
+      <c r="F28" t="str">
+        <v>9473901193</v>
+      </c>
+      <c r="G28" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H28" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I28" t="str">
+        <v xml:space="preserve">Nishoo Yadav </v>
+      </c>
+      <c r="J28" t="str">
+        <v>ynishu603@gmail.com</v>
+      </c>
+      <c r="K28" t="str">
+        <v>8840889602</v>
+      </c>
+      <c r="L28" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M28" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N28" t="str">
+        <v xml:space="preserve">Ajay Sonkar </v>
+      </c>
+      <c r="O28" t="str">
+        <v>ajaysonkar01012004@gmail.com</v>
+      </c>
+      <c r="P28" t="str">
+        <v>7497906768</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="R28" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S28" t="str">
+        <v xml:space="preserve">Ritika kumari </v>
+      </c>
+      <c r="T28" t="str">
+        <v>ritika99103@gmail.com</v>
+      </c>
+      <c r="U28" t="str">
+        <v>9236121599</v>
+      </c>
+      <c r="V28" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W28" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X28" t="str">
+        <v xml:space="preserve">Shivam Kumar </v>
+      </c>
+      <c r="Y28" t="str">
+        <v>kmrsky779@gmail.com</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>7652039074</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761124498/uploadnew/pvwjw2t7jp06e2bbasqv.jpg</v>
+      </c>
+      <c r="AD28" t="str">
+        <v>566155631671</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>AEROEAGLES</v>
+      </c>
+      <c r="C29" t="str">
+        <v>M.M.M. University of Technology Gorakhpur</v>
+      </c>
+      <c r="D29" t="str">
+        <v>PRINCE KUMAR GAUTAM</v>
+      </c>
+      <c r="E29" t="str">
+        <v>princeraj3707@gmail.com</v>
+      </c>
+      <c r="F29" t="str">
+        <v>9140873539</v>
+      </c>
+      <c r="G29" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H29" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I29" t="str">
+        <v>DIVYANSHI</v>
+      </c>
+      <c r="J29" t="str">
+        <v>divyasafar197@gmail.com</v>
+      </c>
+      <c r="K29" t="str">
+        <v>8115152733</v>
+      </c>
+      <c r="L29" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="M29" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N29" t="str">
+        <v>KAJAL YADAV</v>
+      </c>
+      <c r="O29" t="str">
+        <v>kajal200614@gmail.com</v>
+      </c>
+      <c r="P29" t="str">
+        <v>9369029533</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>IT</v>
+      </c>
+      <c r="R29" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S29" t="str">
+        <v>HARIOM PRAJAPATI</v>
+      </c>
+      <c r="T29" t="str">
+        <v>Hariomprajapati6393@gmail.com</v>
+      </c>
+      <c r="U29" t="str">
+        <v>6393715983</v>
+      </c>
+      <c r="V29" t="str">
+        <v>IT</v>
+      </c>
+      <c r="W29" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X29" t="str">
+        <v>ANUJ KUMAR</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>anuj956988@gmail.com</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>9569889304</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761136942/uploadnew/nupnhzjkcmlwmzbsiewl.jpg</v>
+      </c>
+      <c r="AD29" t="str">
+        <v>391157888802</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>Sky pirates</v>
+      </c>
+      <c r="C30" t="str">
+        <v xml:space="preserve">Madan mohan Malviya university of technology </v>
+      </c>
+      <c r="D30" t="str">
+        <v>Vikash kumar prajapati</v>
+      </c>
+      <c r="E30" t="str">
+        <v>kumarvikas45776@gmail.com</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6390167860</v>
+      </c>
+      <c r="G30" t="str">
+        <v>EE</v>
+      </c>
+      <c r="H30" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Vishal yadav</v>
+      </c>
+      <c r="J30" t="str">
+        <v>vishal.ee.169@gmail.com</v>
+      </c>
+      <c r="K30" t="str">
+        <v>9005772229</v>
+      </c>
+      <c r="L30" t="str">
+        <v>EE</v>
+      </c>
+      <c r="M30" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N30" t="str">
+        <v>Ayush Pal</v>
+      </c>
+      <c r="O30" t="str">
+        <v>ayush821855@gmail.com</v>
+      </c>
+      <c r="P30" t="str">
+        <v>9368389958</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>EE</v>
+      </c>
+      <c r="R30" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S30" t="str">
+        <v>Vishaka Singh</v>
+      </c>
+      <c r="T30" t="str">
+        <v>2025021272@mmmut.ac.in</v>
+      </c>
+      <c r="U30" t="str">
+        <v>6306007796</v>
+      </c>
+      <c r="V30" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W30" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X30" t="str">
+        <v>Nancy kushwah</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>nancykushwah803@gmail.com</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>9259571773</v>
+      </c>
+      <c r="AA30" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB30" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC30" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761136999/uploadnew/jktbsc5fuhaj9r0vtmvh.jpg</v>
+      </c>
+      <c r="AD30" t="str">
+        <v>566155651910</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>AeroSynth</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve">Madan Mohan Malviya University of technology </v>
+      </c>
+      <c r="D31" t="str">
+        <v>Jahnvi Singh</v>
+      </c>
+      <c r="E31" t="str">
+        <v>jahnvisingh8468@gmail.com</v>
+      </c>
+      <c r="F31" t="str">
+        <v>7355136816</v>
+      </c>
+      <c r="G31" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H31" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Tanisha Singh</v>
+      </c>
+      <c r="J31" t="str">
+        <v>tanishasingh1305@gmail.com</v>
+      </c>
+      <c r="K31" t="str">
+        <v>9076713292</v>
+      </c>
+      <c r="L31" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M31" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N31" t="str">
+        <v xml:space="preserve">Shelendra </v>
+      </c>
+      <c r="O31" t="str">
+        <v>hypershailendra@gmail.com</v>
+      </c>
+      <c r="P31" t="str">
+        <v>6307234606</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>IT</v>
+      </c>
+      <c r="R31" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S31" t="str">
+        <v>Vedika Gupta</v>
+      </c>
+      <c r="T31" t="str">
+        <v>vedikagupta272@gmail.com</v>
+      </c>
+      <c r="U31" t="str">
+        <v>8299480352</v>
+      </c>
+      <c r="V31" t="str">
+        <v>IT</v>
+      </c>
+      <c r="W31" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X31" t="str">
+        <v xml:space="preserve">Abhishek Kumar Singh </v>
+      </c>
+      <c r="Y31" t="str">
+        <v>abhishekkrsingh2345@gmail.com</v>
+      </c>
+      <c r="Z31" t="str">
+        <v>8429339626</v>
+      </c>
+      <c r="AA31" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="AB31" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC31" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761141404/uploadnew/kvpd6uf7fydsfholnpep.jpg</v>
+      </c>
+      <c r="AD31" t="str">
+        <v>692704123574</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>ACE</v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve">Madan Mohan Malviya university of technology </v>
+      </c>
+      <c r="D32" t="str">
+        <v>Vivek Ashwani</v>
+      </c>
+      <c r="E32" t="str">
+        <v>vivekashwani22@gmail.com</v>
+      </c>
+      <c r="F32" t="str">
+        <v>7390027423</v>
+      </c>
+      <c r="G32" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H32" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I32" t="str">
+        <v xml:space="preserve">Shaurya Dwivedi </v>
+      </c>
+      <c r="J32" t="str">
+        <v>shauryagkp2006@gmail.com</v>
+      </c>
+      <c r="K32" t="str">
+        <v>+91 70071 03090</v>
+      </c>
+      <c r="L32" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M32" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N32" t="str">
+        <v xml:space="preserve">Apoorva Singh </v>
+      </c>
+      <c r="O32" t="str">
+        <v>apoorvasingh14off@gmail.com</v>
+      </c>
+      <c r="P32" t="str">
+        <v>+91 90264 86404</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>CE</v>
+      </c>
+      <c r="R32" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S32" t="str">
+        <v xml:space="preserve">Sanskritee Kapoor </v>
+      </c>
+      <c r="T32" t="str">
+        <v>sanskritik1601@gmail.com</v>
+      </c>
+      <c r="U32" t="str">
+        <v>+91 94548 20378</v>
+      </c>
+      <c r="V32" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W32" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X32" t="str">
+        <v xml:space="preserve">Shivansh Singh </v>
+      </c>
+      <c r="Y32" t="str">
+        <v>sshivanshr@gmail.com</v>
+      </c>
+      <c r="Z32" t="str">
+        <v>+91 96253 07061</v>
+      </c>
+      <c r="AA32" t="str">
+        <v>ME</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC32" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761200358/uploadnew/nqdh9fdfkokbdj1gawwm.jpg</v>
+      </c>
+      <c r="AD32" t="str">
+        <v>2025102314147302</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>Team AARKK</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Madan Mohan Malaviya University of Technology</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Adarsh Yadav</v>
+      </c>
+      <c r="E33" t="str">
+        <v>adarshyadav1078@gmail.com</v>
+      </c>
+      <c r="F33" t="str">
+        <v>9565591308</v>
+      </c>
+      <c r="G33" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H33" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Aditya Raj Nishad</v>
+      </c>
+      <c r="J33" t="str">
+        <v>nishadadityaraj00@gmail.com</v>
+      </c>
+      <c r="K33" t="str">
+        <v>7307586595</v>
+      </c>
+      <c r="L33" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M33" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N33" t="str">
+        <v>Ritika Mishra</v>
+      </c>
+      <c r="O33" t="str">
+        <v>ritikamishra7459@gmail.com</v>
+      </c>
+      <c r="P33" t="str">
+        <v>7459823654</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R33" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S33" t="str">
+        <v xml:space="preserve">Krishna Kumar Shukla </v>
+      </c>
+      <c r="T33" t="str">
+        <v>kks01072006@gmail.com</v>
+      </c>
+      <c r="U33" t="str">
+        <v>8349093411</v>
+      </c>
+      <c r="V33" t="str">
+        <v>IT</v>
+      </c>
+      <c r="W33" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X33" t="str">
+        <v xml:space="preserve">Kajal Verma </v>
+      </c>
+      <c r="Y33" t="str">
+        <v>kv752580@gmail.com</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>7525808578</v>
+      </c>
+      <c r="AA33" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB33" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC33" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761208476/uploadnew/ldlkgvbz7tyd5gxyqhwx.jpg</v>
+      </c>
+      <c r="AD33" t="str">
+        <v>T2510231345581909992506</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v xml:space="preserve">RISING ROTOR </v>
+      </c>
+      <c r="C34" t="str">
+        <v xml:space="preserve">MMMUT gorakhpur </v>
+      </c>
+      <c r="D34" t="str">
+        <v>Vedant Singh</v>
+      </c>
+      <c r="E34" t="str">
+        <v>vedantsingh.ved3@gmail.com</v>
+      </c>
+      <c r="F34" t="str">
+        <v>7905143663</v>
+      </c>
+      <c r="G34" t="str">
+        <v>EE</v>
+      </c>
+      <c r="H34" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Krissy Maurya</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Krissmaurya@gmail.com</v>
+      </c>
+      <c r="K34" t="str">
+        <v>+91 94155 09586</v>
+      </c>
+      <c r="L34" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M34" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N34" t="str">
+        <v xml:space="preserve">Amweshika </v>
+      </c>
+      <c r="O34" t="str">
+        <v xml:space="preserve">  anweshikashree2007@gmail.com</v>
+      </c>
+      <c r="P34" t="str">
+        <v>+91 83072 22727</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>EE</v>
+      </c>
+      <c r="R34" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S34" t="str">
+        <v>Akshat Aryan</v>
+      </c>
+      <c r="T34" t="str">
+        <v>akshataryan8935@gmail.com</v>
+      </c>
+      <c r="U34" t="str">
+        <v>+91 75420 03548</v>
+      </c>
+      <c r="V34" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W34" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X34" t="str">
+        <v>Vineet Pal</v>
+      </c>
+      <c r="Y34" t="str">
+        <v xml:space="preserve"> vnieet93@gmail.com</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>+91 95982 55176</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>EE</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC34" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761213289/uploadnew/fkcc813s2rgpirfsg9ld.jpg</v>
+      </c>
+      <c r="AD34" t="str">
+        <v>T2510231523342442613822</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v xml:space="preserve">The Predator </v>
+      </c>
+      <c r="C35" t="str">
+        <v xml:space="preserve">Madon Mohon Malviya University of Technology </v>
+      </c>
+      <c r="D35" t="str">
+        <v>Animesh Yadav</v>
+      </c>
+      <c r="E35" t="str">
+        <v>anushkayd385@gmail.com</v>
+      </c>
+      <c r="F35" t="str">
+        <v>9651369351</v>
+      </c>
+      <c r="G35" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="H35" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I35" t="str">
+        <v xml:space="preserve">Divyanshu Shankar Rai </v>
+      </c>
+      <c r="J35" t="str">
+        <v>shadivyanshu894@gmail.com</v>
+      </c>
+      <c r="K35" t="str">
+        <v xml:space="preserve"> 70074 12107</v>
+      </c>
+      <c r="L35" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="M35" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N35" t="str">
+        <v>Prakhar Parashar Mishra</v>
+      </c>
+      <c r="O35" t="str">
+        <v>prakharparashar34@gmail.com</v>
+      </c>
+      <c r="P35" t="str">
+        <v>82354 50516</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="R35" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S35" t="str">
+        <v xml:space="preserve">Sunidhi Chaurasia </v>
+      </c>
+      <c r="T35" t="str">
+        <v>sunidhich108446@gmail.com</v>
+      </c>
+      <c r="U35" t="str">
+        <v>6387691537</v>
+      </c>
+      <c r="V35" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W35" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X35" t="str">
+        <v xml:space="preserve">Ritisha Raghuvanshi </v>
+      </c>
+      <c r="Y35" t="str">
+        <v>ritisharaghuvanshi95@gmail.com</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>+91 82995 32804</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB35" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC35" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761225202/uploadnew/ailkwen8caglhe84uumg.jpg</v>
+      </c>
+      <c r="AD35" t="str">
+        <v>529699671010</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v xml:space="preserve">AeroPulse </v>
+      </c>
+      <c r="C36" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D36" t="str">
+        <v xml:space="preserve">Pranjal Chandra </v>
+      </c>
+      <c r="E36" t="str">
+        <v>chandrapranjal8@gmail.com</v>
+      </c>
+      <c r="F36" t="str">
+        <v>9458445588</v>
+      </c>
+      <c r="G36" t="str">
+        <v>EE</v>
+      </c>
+      <c r="H36" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Naman Martolia</v>
+      </c>
+      <c r="J36" t="str">
+        <v>martolianaman@gmail.com</v>
+      </c>
+      <c r="K36" t="str">
+        <v>8800970596</v>
+      </c>
+      <c r="L36" t="str">
+        <v>CE</v>
+      </c>
+      <c r="M36" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N36" t="str">
+        <v>Sara Agarwal</v>
+      </c>
+      <c r="O36" t="str">
+        <v>sara.agarwal.1902@gmail.com</v>
+      </c>
+      <c r="P36" t="str">
+        <v>6392812608</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R36" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S36" t="str">
+        <v>Sakshi Mahalka</v>
+      </c>
+      <c r="T36" t="str">
+        <v>sakshimahalka@gmail.com</v>
+      </c>
+      <c r="U36" t="str">
+        <v>8922822758</v>
+      </c>
+      <c r="V36" t="str">
+        <v>ME</v>
+      </c>
+      <c r="W36" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X36" t="str">
+        <v>Shraddha Tiwari</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>shraddhatiwari0950@gmail.com</v>
+      </c>
+      <c r="Z36" t="str">
+        <v>8887990032</v>
+      </c>
+      <c r="AA36" t="str">
+        <v>ME</v>
+      </c>
+      <c r="AB36" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC36" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761238201/uploadnew/sshnfvzrk4gg0uicuqmz.png</v>
+      </c>
+      <c r="AD36" t="str">
+        <v>113103038845</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v xml:space="preserve">Falcon5 </v>
+      </c>
+      <c r="C37" t="str">
+        <v>Madan Mohan Malviya University of Technology Gorakhpur(MMMUT)</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Abhishek Dubey</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2025051104@mmmut.ac.in</v>
+      </c>
+      <c r="F37" t="str">
+        <v>8303310397</v>
+      </c>
+      <c r="G37" t="str">
+        <v>ME</v>
+      </c>
+      <c r="H37" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I37" t="str">
+        <v xml:space="preserve">Anubhav Tiwari </v>
+      </c>
+      <c r="J37" t="str">
+        <v>dfvcsazx@gmail.com</v>
+      </c>
+      <c r="K37" t="str">
+        <v>7985079781</v>
+      </c>
+      <c r="L37" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M37" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N37" t="str">
+        <v xml:space="preserve">Adarsh Jaiswal </v>
+      </c>
+      <c r="O37" t="str">
+        <v>adarshjaiswal9184@gmail.com</v>
+      </c>
+      <c r="P37" t="str">
+        <v>9120401784</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R37" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S37" t="str">
+        <v xml:space="preserve">Bibhuti Nath </v>
+      </c>
+      <c r="T37" t="str">
+        <v>bibhutinath9090@gmail.com</v>
+      </c>
+      <c r="U37" t="str">
+        <v>9151880729</v>
+      </c>
+      <c r="V37" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W37" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X37" t="str">
+        <v xml:space="preserve">Sanjay Kumar </v>
+      </c>
+      <c r="Y37" t="str">
+        <v>sanjaykumar079wsed@gmail.com</v>
+      </c>
+      <c r="Z37" t="str">
+        <v>9219909341</v>
+      </c>
+      <c r="AA37" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="AB37" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC37" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761297719/uploadnew/rtyrxzz92cvo0t3b3zyi.jpg</v>
+      </c>
+      <c r="AD37" t="str">
+        <v>566342640226</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v xml:space="preserve">FREEWINGS </v>
+      </c>
+      <c r="C38" t="str">
+        <v>Madan Mohan Malaviya university of technology</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Anmol Srivastava</v>
+      </c>
+      <c r="E38" t="str">
+        <v>anmol06052007@gmail.com</v>
+      </c>
+      <c r="F38" t="str">
+        <v>9555630065</v>
+      </c>
+      <c r="G38" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="H38" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I38" t="str">
+        <v xml:space="preserve">Anshika Verma </v>
+      </c>
+      <c r="J38" t="str">
+        <v>anshi2006verma@gmail.com</v>
+      </c>
+      <c r="K38" t="str">
+        <v>7307942781</v>
+      </c>
+      <c r="L38" t="str">
+        <v>CHE</v>
+      </c>
+      <c r="M38" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N38" t="str">
+        <v>Utkarsh Singh</v>
+      </c>
+      <c r="O38" t="str">
+        <v xml:space="preserve"> 2025021268@mmmut.ac.in</v>
+      </c>
+      <c r="P38" t="str">
+        <v>8173004065</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="R38" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S38" t="str">
+        <v>Divyansh Rai</v>
+      </c>
+      <c r="T38" t="str">
+        <v>raidivyansh754@gmail.com</v>
+      </c>
+      <c r="U38" t="str">
+        <v>7080510130</v>
+      </c>
+      <c r="V38" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W38" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X38" t="str">
+        <v>Sameer Gupta</v>
+      </c>
+      <c r="Y38" t="str">
+        <v xml:space="preserve"> sameergupta8423145188@gmail.com</v>
+      </c>
+      <c r="Z38" t="str">
+        <v>8173026078</v>
+      </c>
+      <c r="AA38" t="str">
+        <v>ECE(IoT)</v>
+      </c>
+      <c r="AB38" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC38" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761323089/uploadnew/d7yl5lhrrcizcn2uksuy.jpg</v>
+      </c>
+      <c r="AD38" t="str">
+        <v>529733883940</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v>Tech Titans</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Madan Mohan Malviya University of Technology</v>
+      </c>
+      <c r="D39" t="str">
+        <v>keshav Agraval</v>
+      </c>
+      <c r="E39" t="str">
+        <v>keshav16669@gmail.com</v>
+      </c>
+      <c r="F39" t="str">
+        <v>9170608880</v>
+      </c>
+      <c r="G39" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H39" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Ayush Dheeran Pal</v>
+      </c>
+      <c r="J39" t="str">
+        <v>ayushdheeranpal@gmail.com</v>
+      </c>
+      <c r="K39" t="str">
+        <v>8303458831</v>
+      </c>
+      <c r="L39" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="M39" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N39" t="str">
+        <v>Udit Pandey</v>
+      </c>
+      <c r="O39" t="str">
+        <v>udit7163pandey@gmail.com</v>
+      </c>
+      <c r="P39" t="str">
+        <v>8318521904</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="R39" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S39" t="str">
+        <v>Veer Pratap Singh</v>
+      </c>
+      <c r="T39" t="str">
+        <v>os473135@gmail.com</v>
+      </c>
+      <c r="U39" t="str">
+        <v>8532819210</v>
+      </c>
+      <c r="V39" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W39" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X39" t="str">
+        <v>Aniket Pandey</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>pandeyaniket056@gmail.com</v>
+      </c>
+      <c r="Z39" t="str">
+        <v>8299703183</v>
+      </c>
+      <c r="AA39" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB39" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC39" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761330516/uploadnew/iel0cztkmkbuyejzqkdg.jpg</v>
+      </c>
+      <c r="AD39" t="str">
+        <v>81253000272</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="str">
+        <v>RR</v>
+      </c>
+      <c r="C40" t="str">
+        <v xml:space="preserve">MMMUT </v>
+      </c>
+      <c r="D40" t="str">
+        <v>AKSHAT YADAV</v>
+      </c>
+      <c r="E40" t="str">
+        <v>mausam9511@gmail.com</v>
+      </c>
+      <c r="F40" t="str">
+        <v>9118313040</v>
+      </c>
+      <c r="G40" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H40" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I40" t="str">
+        <v xml:space="preserve">Akash Yadav </v>
+      </c>
+      <c r="J40" t="str">
+        <v>akashyadav098085@gmail.com</v>
+      </c>
+      <c r="K40" t="str">
+        <v>6268407794</v>
+      </c>
+      <c r="L40" t="str">
+        <v>ME</v>
+      </c>
+      <c r="M40" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N40" t="str">
+        <v xml:space="preserve">Raunak Patel </v>
+      </c>
+      <c r="O40" t="str">
+        <v>raunakrajrajpatel@gmail.com</v>
+      </c>
+      <c r="P40" t="str">
+        <v>7860111003</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="R40" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S40" t="str">
+        <v xml:space="preserve">Anish Patel </v>
+      </c>
+      <c r="T40" t="str">
+        <v>apatelnish08@gmail.com</v>
+      </c>
+      <c r="U40" t="str">
+        <v>9214631771</v>
+      </c>
+      <c r="V40" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W40" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC40" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761371052/uploadnew/zrj4xl53gmjx8mtkzitq.jpg</v>
+      </c>
+      <c r="AD40" t="str">
+        <v>529856632152</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="str">
+        <v xml:space="preserve">FURIOUS SQUADRON </v>
+      </c>
+      <c r="C41" t="str">
+        <v>MMMUT, GKP</v>
+      </c>
+      <c r="D41" t="str">
+        <v>ANANYA PANDEY</v>
+      </c>
+      <c r="E41" t="str">
+        <v>anpaug15@gmail.com</v>
+      </c>
+      <c r="F41" t="str">
+        <v>+91 89605 82168</v>
+      </c>
+      <c r="G41" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H41" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I41" t="str">
+        <v xml:space="preserve">PIYUSH KUMAR </v>
+      </c>
+      <c r="J41" t="str">
+        <v>bittukumar131669@gmail.com</v>
+      </c>
+      <c r="K41" t="str">
+        <v>+91 91984 19582</v>
+      </c>
+      <c r="L41" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M41" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N41" t="str">
+        <v xml:space="preserve">KHUSHI PANDEY </v>
+      </c>
+      <c r="O41" t="str">
+        <v>lavishpandey315@gmail.com</v>
+      </c>
+      <c r="P41" t="str">
+        <v>+91 78178 92118</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R41" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S41" t="str">
+        <v xml:space="preserve">SIDDHARTH RAJPOOT </v>
+      </c>
+      <c r="T41" t="str">
+        <v>siddharthrajpoot108@gmail.com</v>
+      </c>
+      <c r="U41" t="str">
+        <v>+91 82994 53090</v>
+      </c>
+      <c r="V41" t="str">
+        <v>IT</v>
+      </c>
+      <c r="W41" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X41" t="str">
+        <v xml:space="preserve">RAJAT PILKHANIA </v>
+      </c>
+      <c r="Y41" t="str">
+        <v>libnetizenrajat@gmail.com</v>
+      </c>
+      <c r="Z41" t="str">
+        <v>9557707553</v>
+      </c>
+      <c r="AA41" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB41" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC41" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761395545/uploadnew/pt3vnyszl3i2xjp6xoza.jpg</v>
+      </c>
+      <c r="AD41" t="str">
+        <v>529838631079</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>Aktisukh</v>
+      </c>
+      <c r="C42" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Harsh Singh</v>
+      </c>
+      <c r="E42" t="str">
+        <v>harshpiprauli@gmail.com</v>
+      </c>
+      <c r="F42" t="str">
+        <v>9651880851</v>
+      </c>
+      <c r="G42" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H42" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Abhinav sonkar</v>
+      </c>
+      <c r="J42" t="str">
+        <v>mrabhinav52@gmail.com</v>
+      </c>
+      <c r="K42" t="str">
+        <v>8081520324</v>
+      </c>
+      <c r="L42" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M42" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N42" t="str">
+        <v>Devendra Gangwar</v>
+      </c>
+      <c r="O42" t="str">
+        <v>2025041225@mmmut.ac.in</v>
+      </c>
+      <c r="P42" t="str">
+        <v>8218456667</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R42" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S42" t="str">
+        <v xml:space="preserve">Gaurav Yadav </v>
+      </c>
+      <c r="T42" t="str">
+        <v>gaurav87379530@gmail.com</v>
+      </c>
+      <c r="U42" t="str">
+        <v>8737953055</v>
+      </c>
+      <c r="V42" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W42" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X42" t="str">
+        <v xml:space="preserve">Anshu Patel </v>
+      </c>
+      <c r="Y42" t="str">
+        <v>2025041218@mmmut.ac.in</v>
+      </c>
+      <c r="Z42" t="str">
+        <v>6389333930</v>
+      </c>
+      <c r="AA42" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="AB42" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC42" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761401438/uploadnew/knj0cykvuabpt9izeerm.jpg</v>
+      </c>
+      <c r="AD42" t="str">
+        <v>529844883529</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v xml:space="preserve">Tech vultures </v>
+      </c>
+      <c r="C43" t="str">
+        <v xml:space="preserve">Madan Mohan Malviya University of technology </v>
+      </c>
+      <c r="D43" t="str">
+        <v>Anshika Sharma</v>
+      </c>
+      <c r="E43" t="str">
+        <v>shanshika1444@gmail.com</v>
+      </c>
+      <c r="F43" t="str">
+        <v>9151475831</v>
+      </c>
+      <c r="G43" t="str">
+        <v>EE</v>
+      </c>
+      <c r="H43" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I43" t="str">
+        <v xml:space="preserve">Shalini </v>
+      </c>
+      <c r="J43" t="str">
+        <v>its0303shalu@gmail.com</v>
+      </c>
+      <c r="K43" t="str">
+        <v>8858403186</v>
+      </c>
+      <c r="L43" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M43" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N43" t="str">
+        <v xml:space="preserve">Yash Gupta </v>
+      </c>
+      <c r="O43" t="str">
+        <v>yashgupta4674@gmail.com</v>
+      </c>
+      <c r="P43" t="str">
+        <v>7007874674</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>EE</v>
+      </c>
+      <c r="R43" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S43" t="str">
+        <v xml:space="preserve">Ankur Kushwaha </v>
+      </c>
+      <c r="T43" t="str">
+        <v>akku922003@gmail.com</v>
+      </c>
+      <c r="U43" t="str">
+        <v>9569663428</v>
+      </c>
+      <c r="V43" t="str">
+        <v>EE</v>
+      </c>
+      <c r="W43" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X43" t="str">
+        <v xml:space="preserve">Ayush Shukla </v>
+      </c>
+      <c r="Y43" t="str">
+        <v>as3801504@gmail.com</v>
+      </c>
+      <c r="Z43" t="str">
+        <v>8009730650</v>
+      </c>
+      <c r="AA43" t="str">
+        <v>ME</v>
+      </c>
+      <c r="AB43" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC43" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761402217/uploadnew/our175iwd2yqyhk0r3s7.jpg</v>
+      </c>
+      <c r="AD43" t="str">
+        <v>T2510251952342003488743</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="str">
+        <v xml:space="preserve">AeroPulse </v>
+      </c>
+      <c r="C44" t="str">
+        <v xml:space="preserve">Madan Mohan Malaviya University of Technology </v>
+      </c>
+      <c r="D44" t="str">
+        <v>ADITYA KUMAR SINGH</v>
+      </c>
+      <c r="E44" t="str">
+        <v>adityakschauhan10b@gmail.com</v>
+      </c>
+      <c r="F44" t="str">
+        <v>8858545478</v>
+      </c>
+      <c r="G44" t="str">
+        <v>EE</v>
+      </c>
+      <c r="H44" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I44" t="str">
+        <v xml:space="preserve">Divyanshi </v>
+      </c>
+      <c r="J44" t="str">
+        <v>divyanshis132@gmail.com</v>
+      </c>
+      <c r="K44" t="str">
+        <v>8791436877</v>
+      </c>
+      <c r="L44" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="M44" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N44" t="str">
+        <v xml:space="preserve">Srishti Pandey </v>
+      </c>
+      <c r="O44" t="str">
+        <v>srishtipandey056@gmail.com</v>
+      </c>
+      <c r="P44" t="str">
+        <v>96434020670</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>ME</v>
+      </c>
+      <c r="R44" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S44" t="str">
+        <v xml:space="preserve">Aditya Bajpai </v>
+      </c>
+      <c r="T44" t="str">
+        <v>uzumakiadi06@gmail.com</v>
+      </c>
+      <c r="U44" t="str">
+        <v>7905967828</v>
+      </c>
+      <c r="V44" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W44" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X44" t="str">
+        <v xml:space="preserve">Aditya Pratap Singh </v>
+      </c>
+      <c r="Y44" t="str">
+        <v>adityap5634@gmail.com</v>
+      </c>
+      <c r="Z44" t="str">
+        <v>9893249390</v>
+      </c>
+      <c r="AA44" t="str">
+        <v>CE</v>
+      </c>
+      <c r="AB44" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC44" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761450936/uploadnew/yldf570gvwj3clh8axe9.jpg</v>
+      </c>
+      <c r="AD44" t="str">
+        <v>113200049061</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v>FalconX</v>
+      </c>
+      <c r="C45" t="str">
+        <v xml:space="preserve">Madan Mohan malaviya university of technology </v>
+      </c>
+      <c r="D45" t="str">
+        <v>Mahak keshari</v>
+      </c>
+      <c r="E45" t="str">
+        <v>mahakkeshari9@gmail.com</v>
+      </c>
+      <c r="F45" t="str">
+        <v>8604883729</v>
+      </c>
+      <c r="G45" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H45" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I45" t="str">
+        <v xml:space="preserve">Avichal kumar pankaj </v>
+      </c>
+      <c r="J45" t="str">
+        <v>avichalkumar106@gmail.com</v>
+      </c>
+      <c r="K45" t="str">
+        <v>7307137985</v>
+      </c>
+      <c r="L45" t="str">
+        <v>EE</v>
+      </c>
+      <c r="M45" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N45" t="str">
+        <v xml:space="preserve">Aditya kumar </v>
+      </c>
+      <c r="O45" t="str">
+        <v>adityaaakr03@gmail.com</v>
+      </c>
+      <c r="P45" t="str">
+        <v>9142083946</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>IT</v>
+      </c>
+      <c r="R45" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S45" t="str">
+        <v xml:space="preserve">Anamika </v>
+      </c>
+      <c r="T45" t="str">
+        <v>anamika62663@gmail.com</v>
+      </c>
+      <c r="U45" t="str">
+        <v>9129559962</v>
+      </c>
+      <c r="V45" t="str">
+        <v>IT</v>
+      </c>
+      <c r="W45" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X45" t="str">
+        <v xml:space="preserve">Ankita </v>
+      </c>
+      <c r="Y45" t="str">
+        <v>ankitakannaujiya002@gmail.com</v>
+      </c>
+      <c r="Z45" t="str">
+        <v>7307575643</v>
+      </c>
+      <c r="AA45" t="str">
+        <v>CE</v>
+      </c>
+      <c r="AB45" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC45" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761455114/uploadnew/pshk7bgjmbibdcwgf6xz.jpg</v>
+      </c>
+      <c r="AD45" t="str">
+        <v>T2510261033429131403295</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>Megatron</v>
+      </c>
+      <c r="C46" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Adarsh Singh</v>
+      </c>
+      <c r="E46" t="str">
+        <v>adarshsng99@gmail.com</v>
+      </c>
+      <c r="F46" t="str">
+        <v>6392236629</v>
+      </c>
+      <c r="G46" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H46" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Aditya Shekhar chauhan</v>
+      </c>
+      <c r="J46" t="str">
+        <v>adi0703an@gmail.com</v>
+      </c>
+      <c r="K46" t="str">
+        <v>7618911943</v>
+      </c>
+      <c r="L46" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M46" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N46" t="str">
+        <v>Akhil Pushkar</v>
+      </c>
+      <c r="O46" t="str">
+        <v>deo533.akhilpushkar@gmail.com</v>
+      </c>
+      <c r="P46" t="str">
+        <v>8127645705</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="R46" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S46" t="str">
+        <v>Deepak Jaiswal</v>
+      </c>
+      <c r="T46" t="str">
+        <v>dj391714@gmail.com</v>
+      </c>
+      <c r="U46" t="str">
+        <v>9151660353</v>
+      </c>
+      <c r="V46" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="W46" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X46" t="str">
+        <v>Bikram Singh</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>bikram15036@gmail.com</v>
+      </c>
+      <c r="Z46" t="str">
+        <v>9198955057</v>
+      </c>
+      <c r="AA46" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB46" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC46" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761459862/uploadnew/gvdstmkndt3ogn2poqgi.jpg</v>
+      </c>
+      <c r="AD46" t="str">
+        <v>529971087533</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v>Future flyers</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Madan mohan malviya university of technology</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Abhinay singh</v>
+      </c>
+      <c r="E47" t="str">
+        <v>abhinaysingh010208@gmail.com</v>
+      </c>
+      <c r="F47" t="str">
+        <v>7317594775</v>
+      </c>
+      <c r="G47" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H47" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC47" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761490024/uploadnew/jqr2lb6vaw0zvl3ubggi.jpg</v>
+      </c>
+      <c r="AD47" t="str">
+        <v>566538106739</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v>Swiftions</v>
+      </c>
+      <c r="C48" t="str">
+        <v xml:space="preserve">Madan Mohan Malviya University of Technology Gorakhpur </v>
+      </c>
+      <c r="D48" t="str">
+        <v>Abhinav Yadav</v>
+      </c>
+      <c r="E48" t="str">
+        <v>abhyaa96@gmail.com</v>
+      </c>
+      <c r="F48" t="str">
+        <v>9335845757</v>
+      </c>
+      <c r="G48" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H48" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I48" t="str">
+        <v xml:space="preserve">Akash Kumar </v>
+      </c>
+      <c r="J48" t="str">
+        <v>abhyaa96@gmail.com</v>
+      </c>
+      <c r="K48" t="str">
+        <v xml:space="preserve"> 72350 32562</v>
+      </c>
+      <c r="L48" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="M48" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N48" t="str">
+        <v xml:space="preserve">Kundan Kumar Raj </v>
+      </c>
+      <c r="O48" t="str">
+        <v>abhyaa96@gmail.com</v>
+      </c>
+      <c r="P48" t="str">
+        <v>7985097078</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>EE</v>
+      </c>
+      <c r="R48" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S48" t="str">
+        <v xml:space="preserve">Abhishek Kumar </v>
+      </c>
+      <c r="T48" t="str">
+        <v>abhyaa96@gmail.com</v>
+      </c>
+      <c r="U48" t="str">
+        <v>9335787503</v>
+      </c>
+      <c r="V48" t="str">
+        <v>IT</v>
+      </c>
+      <c r="W48" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X48" t="str">
+        <v>Akhilendra yadav</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>abhyaa96@gmail.com</v>
+      </c>
+      <c r="Z48" t="str">
+        <v>93692 84810</v>
+      </c>
+      <c r="AA48" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB48" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC48" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761502595/uploadnew/bfq8rfifxi7qmwvstxjf.jpg</v>
+      </c>
+      <c r="AD48" t="str">
+        <v>T2510262345503092283374</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="str">
+        <v xml:space="preserve">Badmos Parinda </v>
+      </c>
+      <c r="C49" t="str">
+        <v xml:space="preserve">Madan mohan malviya University of technology </v>
+      </c>
+      <c r="D49" t="str">
+        <v>Sparsh Srivastava</v>
+      </c>
+      <c r="E49" t="str">
+        <v>sparshsrivastava22102007@gmail.com</v>
+      </c>
+      <c r="F49" t="str">
+        <v>9504720730</v>
+      </c>
+      <c r="G49" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="H49" t="str">
+        <v>1st</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Aditya Yadav</v>
+      </c>
+      <c r="J49" t="str">
+        <v>yadavadii1004@gmail.com</v>
+      </c>
+      <c r="K49" t="str">
+        <v>8957761004</v>
+      </c>
+      <c r="L49" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="M49" t="str">
+        <v>1st</v>
+      </c>
+      <c r="N49" t="str">
+        <v>Himanshu Sholanki</v>
+      </c>
+      <c r="O49" t="str">
+        <v>himanshusolanki1709@gmail.com</v>
+      </c>
+      <c r="P49" t="str">
+        <v>7456868858</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="R49" t="str">
+        <v>1st</v>
+      </c>
+      <c r="S49" t="str">
+        <v xml:space="preserve">Vaibhav Rana </v>
+      </c>
+      <c r="T49" t="str">
+        <v>vaibhav.rana.4386@gmail.com</v>
+      </c>
+      <c r="U49" t="str">
+        <v>9971541557</v>
+      </c>
+      <c r="V49" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="W49" t="str">
+        <v>1st</v>
+      </c>
+      <c r="X49" t="str">
+        <v>Anshul Rawat</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>anshulrawat9389@gmail.com</v>
+      </c>
+      <c r="Z49" t="str">
+        <v>9389239130</v>
+      </c>
+      <c r="AA49" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="AB49" t="str">
+        <v>1st</v>
+      </c>
+      <c r="AC49" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1761503589/uploadnew/uk9hvsw7skyhgvlxgmjk.jpg</v>
+      </c>
+      <c r="AD49" t="str">
+        <v>529908133005</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE49"/>
   </ignoredErrors>
 </worksheet>
 </file>